--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laisi_h5_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1055B31B-FD74-4E13-9201-8E4475F1BA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5AEA78-435A-4CC6-A67F-1AFE56F75E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/h5/h5V3/airSticker/itemData.html?macAddress=xxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ppm解释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +151,10 @@
   </si>
   <si>
     <t>/h5/h5V3/videoCourse/courseDetail.html?id=xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/airSticker/historyList.html?macAddress=xxxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +498,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -546,104 +546,104 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
         <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laisi_h5_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5AEA78-435A-4CC6-A67F-1AFE56F75E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDBBF60-76E9-46B0-8717-7CEE1B87E3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>pk赛</t>
   </si>
@@ -156,6 +156,24 @@
   <si>
     <t>/h5/h5V3/airSticker/historyList.html?macAddress=xxxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体脂秤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体脂秤主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体脂秤分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/h5/h5V3/balance/bodydetail.html?memberId=1008935&amp;measureId=95569959 </t>
+  </si>
+  <si>
+    <t>/h5/h5V3/balance/bodydetail.html?memberId=1008935&amp;measureId=95569959&amp;isShare=1  isShare=1分享必须</t>
   </si>
 </sst>
 </file>
@@ -495,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -646,6 +664,27 @@
         <v>31</v>
       </c>
     </row>
+    <row r="34" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laisi_h5_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDBBF60-76E9-46B0-8717-7CEE1B87E3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362516C2-CB4E-4A9D-BF96-5BF44C318C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,10 +170,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">/h5/h5V3/balance/bodydetail.html?memberId=1008935&amp;measureId=95569959 </t>
-  </si>
-  <si>
-    <t>/h5/h5V3/balance/bodydetail.html?memberId=1008935&amp;measureId=95569959&amp;isShare=1  isShare=1分享必须</t>
+    <t>/h5/h5V3/balance/bodydetail.html?memberId=1008935&amp;measureId=95569959&amp;deviceType=blebalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/balance/bodydetail.html?memberId=1008935&amp;measureId=95569959&amp;isShare=1&amp;deviceType=blebalance  isShare=1分享必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -515,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -1,199 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laisi_h5_new\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362516C2-CB4E-4A9D-BF96-5BF44C318C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>pk赛</t>
   </si>
   <si>
     <t>pk赛列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/PK/#/competitionList?type=skipping  type对应pk赛的类型   skipping跳绳   running跑步  wristBall腕力球 wheel健腹轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PK赛详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/PK/#/competitionDetail?type=skipping&amp;id=750  id 比赛的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>空气贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单次数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/airSticker/itemData.html?dataId=xxxxx</t>
   </si>
   <si>
     <t>历史数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/h5/h5V3/airSticker/itemData.html?dataId=xxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/airSticker/historyList.html?macAddress=xxxx</t>
   </si>
   <si>
     <t>ppm解释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/airSticker/ppmDesc.html</t>
   </si>
   <si>
     <t>tovc解释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/h5/h5V3/airSticker/ppmDesc.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/airSticker/tovcDesc.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我的小组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小组列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/myGroup/#/myGroupList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小组主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/myGroup/#/groupIndex?id=xxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>排行榜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>排行榜主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/skipLeaderboard/list.html?type=skipping  type对应pk赛的类型   skipping跳绳   running跑步  wristBall腕力球 wheel健腹轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>运动日历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/sportsClock/#/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>运动周报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>列表页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/sportsReport/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>课程主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/videoCourse/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>课程详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/videoCourse/courseDetail.html?id=xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/h5/h5V3/airSticker/historyList.html?macAddress=xxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>体脂秤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>体脂秤主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/balance/bodydetail.html?memberId=1008935&amp;measureId=95569959&amp;deviceType=blebalance</t>
   </si>
   <si>
     <t>体脂秤分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/h5/h5V3/balance/bodydetail.html?memberId=1008935&amp;measureId=95569959&amp;deviceType=blebalance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/balance/bodydetail.html?memberId=1008935&amp;measureId=95569959&amp;isShare=1&amp;deviceType=blebalance  isShare=1分享必须</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部</t>
+  </si>
+  <si>
+    <t>俱乐部列表</t>
+  </si>
+  <si>
+    <t>/h5/h5V3/allClub/clubList_Detail/clubList.html?userId=xxx</t>
+  </si>
+  <si>
+    <t>俱乐部详情主页</t>
+  </si>
+  <si>
+    <t>/h5/h5V3/allClub/clubList_Detail/clubDetail.html.html?id=xxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -201,12 +167,162 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +335,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -228,25 +530,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -295,7 +883,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -330,7 +918,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -504,35 +1092,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="36.21875" customWidth="1"/>
-    <col min="2" max="2" width="106.88671875" customWidth="1"/>
+    <col min="1" max="1" width="36.2166666666667" customWidth="1"/>
+    <col min="2" max="2" width="106.883333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -540,7 +1123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -548,148 +1131,169 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="6" s="1" customFormat="1" ht="20.25" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
       <c r="B8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="20.25" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="20.25" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="20.25" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="20.25" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="20.25" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="20.25" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="39" s="1" customFormat="1" ht="20.25" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laisi_h5_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBEECFD-19AD-443D-BCCB-2EACBE7EB860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C39832-E620-4BC9-AC52-79FC2EC4F1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>pk赛</t>
   </si>
@@ -290,6 +290,10 @@
   </si>
   <si>
     <t>/h5/h5V3/laisi/agreement/userAgreement.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">h5的链接后面都拼接一个userId </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -641,11 +645,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -653,259 +655,264 @@
     <col min="2" max="2" width="106.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+    <row r="55" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>59</v>
       </c>
     </row>

--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laisi_h5_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C39832-E620-4BC9-AC52-79FC2EC4F1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E978BEC5-2D66-499D-BD27-26DE7EDE21F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>pk赛</t>
   </si>
   <si>
     <t>pk赛列表</t>
-  </si>
-  <si>
-    <t>/h5/h5V3/PK/#/competitionList?type=skipping  type对应pk赛的类型   skipping跳绳   running跑步  wristBall腕力球 wheel健腹轮</t>
   </si>
   <si>
     <t>PK赛详情</t>
@@ -294,6 +291,22 @@
   </si>
   <si>
     <t xml:space="preserve">h5的链接后面都拼接一个userId </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/PK/#/competitionList?type=skipping  type对应pk赛的类型   skipping跳绳   running跑步  wristBall腕力球 wheel健腹轮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战主页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/challenge/#/index?type=XXX   type对应pk赛的类型   skipping跳绳    wristBall腕力球 wheel健腹轮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日挑战</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -645,9 +658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -657,7 +672,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
@@ -670,250 +685,263 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
         <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
         <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
         <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
         <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laisi_h5_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E978BEC5-2D66-499D-BD27-26DE7EDE21F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A6DAB9-C628-4FF0-AE34-B275EEBC2C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>排行榜主页</t>
-  </si>
-  <si>
-    <t>/h5/h5V3/skipLeaderboard/list.html?type=skipping  type对应pk赛的类型   skipping跳绳   running跑步  wristBall腕力球 wheel健腹轮</t>
   </si>
   <si>
     <t>运动日历</t>
@@ -294,19 +291,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/h5/h5V3/PK/#/competitionList?type=skipping  type对应pk赛的类型   skipping跳绳   running跑步  wristBall腕力球 wheel健腹轮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>挑战主页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/h5/h5V3/challenge/#/index?type=XXX   type对应pk赛的类型   skipping跳绳    wristBall腕力球 wheel健腹轮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>今日挑战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/PK/#/competitionList?type=skipping  type对应pk赛的类型   skipping跳绳   running跑步  wristball腕力球 wheel健腹轮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/challenge/#/index?type=XXX   type对应pk赛的类型   skipping跳绳    wristball腕力球 wheel健腹轮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/skipLeaderboard/list.html?type=skipping  type对应pk赛的类型   skipping跳绳   running跑步  wristball腕力球 wheel健腹轮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -660,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -672,7 +673,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
@@ -685,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -764,181 +765,181 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
         <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
         <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
         <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
         <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
         <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
         <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>

--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laisi_h5_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A6DAB9-C628-4FF0-AE34-B275EEBC2C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFCB050-B7D3-49B4-B249-F0B5DBD6A78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>pk赛</t>
   </si>
@@ -299,15 +299,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/h5/h5V3/PK/#/competitionList?type=skipping  type对应pk赛的类型   skipping跳绳   running跑步  wristball腕力球 wheel健腹轮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/h5/h5V3/challenge/#/index?type=XXX   type对应pk赛的类型   skipping跳绳    wristball腕力球 wheel健腹轮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/h5/h5V3/skipLeaderboard/list.html?type=skipping  type对应pk赛的类型   skipping跳绳   running跑步  wristball腕力球 wheel健腹轮</t>
+    <t>/h5/h5V3/skipLeaderboard/list.html?type=skipping  type对应pk赛的类型   skipping跳绳   steps跑步  wristball腕力球 wheel健腹轮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/bestCareer/index.html?type=wheel&amp;shareTime=2021/09/13 分享的日期  type对应pk赛的类型   skipping跳绳   steps跑步  wristball腕力球 wheel健腹轮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生涯最佳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/PK/#/competitionList?type=skipping  type对应pk赛的类型   skipping跳绳   steps跑步  wristball腕力球 wheel健腹轮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 分享的地址都需要加上isShare=1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -659,11 +671,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -675,6 +685,9 @@
       <c r="A1" t="s">
         <v>58</v>
       </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -686,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -765,7 +778,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
@@ -942,7 +955,20 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laisi_h5_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFCB050-B7D3-49B4-B249-F0B5DBD6A78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D594512-E9C1-49FD-891D-68F6AEE5E2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>pk赛</t>
   </si>
@@ -320,6 +320,34 @@
   </si>
   <si>
     <t xml:space="preserve"> 分享的地址都需要加上isShare=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线pk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请观战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/onlinePK/competitionRecord.html?userId=xxx&amp;isShare=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/onlinePK/rule.html&amp;isShare=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/onlinePK/inviteToLookOn.html?nickName=xxx&amp;isShare=1&amp;app自己的信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -671,9 +699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -971,6 +1001,35 @@
         <v>63</v>
       </c>
     </row>
+    <row r="66" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laisi_h5_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D594512-E9C1-49FD-891D-68F6AEE5E2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9796CDF-9927-4DE9-AD96-2AA8D10A30B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>pk赛</t>
   </si>
@@ -348,6 +348,26 @@
   </si>
   <si>
     <t>/h5/h5V3/onlinePK/inviteToLookOn.html?nickName=xxx&amp;isShare=1&amp;app自己的信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3//community/invitationShare.html?userId=10008515&amp;isShare=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/community/dynamicShare.html?userId=10008515&amp;id=26874&amp;isShare=1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -699,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1030,6 +1050,27 @@
         <v>71</v>
       </c>
     </row>
+    <row r="72" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laisi_h5_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9796CDF-9927-4DE9-AD96-2AA8D10A30B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6FEFC6-84C9-4222-B842-022969712B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,16 +88,10 @@
     <t>主页</t>
   </si>
   <si>
-    <t>/h5/h5V3/sportsClock/#/index</t>
-  </si>
-  <si>
     <t>运动周报</t>
   </si>
   <si>
     <t>列表页</t>
-  </si>
-  <si>
-    <t>/h5/h5V3/sportsReport/index.html</t>
   </si>
   <si>
     <t>课程</t>
@@ -307,10 +301,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/h5/h5V3/bestCareer/index.html?type=wheel&amp;shareTime=2021/09/13 分享的日期  type对应pk赛的类型   skipping跳绳   steps跑步  wristball腕力球 wheel健腹轮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>生涯最佳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -368,6 +358,18 @@
   </si>
   <si>
     <t>/h5/h5V3/community/dynamicShare.html?userId=10008515&amp;id=26874&amp;isShare=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/bestCareer/index.html?userId=xxx&amp;isShare=1&amp;type=wheel&amp;shareTime=2021/09/13 分享的日期  type对应pk赛的类型   skipping跳绳   steps跑步  wristball腕力球 wheel健腹轮 total 总的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/sportsClock/#/index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/sportsReport/index.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -721,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -733,10 +735,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
@@ -749,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -828,7 +830,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
@@ -841,234 +843,234 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" t="s">
         <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laisi_h5_new\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6FEFC6-84C9-4222-B842-022969712B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28000" windowHeight="20800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+  <si>
+    <t xml:space="preserve">h5的链接后面都拼接一个userId </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 分享的地址都需要加上isShare=1</t>
+  </si>
   <si>
     <t>pk赛</t>
   </si>
@@ -28,6 +28,9 @@
     <t>pk赛列表</t>
   </si>
   <si>
+    <t>/h5/h5V3/PK/#/competitionList?type=skipping  type对应pk赛的类型   skipping跳绳   steps跑步  wristball腕力球 wheel健腹轮</t>
+  </si>
+  <si>
     <t>PK赛详情</t>
   </si>
   <si>
@@ -82,18 +85,27 @@
     <t>排行榜主页</t>
   </si>
   <si>
+    <t>/h5/h5V3/skipLeaderboard/list.html?type=skipping  type对应pk赛的类型   skipping跳绳   steps跑步  wristball腕力球 wheel健腹轮</t>
+  </si>
+  <si>
     <t>运动日历</t>
   </si>
   <si>
     <t>主页</t>
   </si>
   <si>
+    <t>/h5/h5V3/sportsClock/#/index</t>
+  </si>
+  <si>
     <t>运动周报</t>
   </si>
   <si>
     <t>列表页</t>
   </si>
   <si>
+    <t>/h5/h5V3/sportsReport/index.html</t>
+  </si>
+  <si>
     <t>课程</t>
   </si>
   <si>
@@ -130,6 +142,9 @@
     <t>俱乐部列表</t>
   </si>
   <si>
+    <t>/h5/h5V3/allClub/clubList_Detail/clubList.html?userId=xxx</t>
+  </si>
+  <si>
     <t>俱乐部详情主页</t>
   </si>
   <si>
@@ -137,85 +152,21 @@
   </si>
   <si>
     <t>升级攻略</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/h5/h5V3/allClub/clubList_Detail/clubList.html?userId=xxx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/userGrowth/index.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>手表的名词解释</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasalMetabolicRate.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CumulativeConsumption.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>MorningPulse</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>.html</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>O2MAX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.html</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>RestingHeartRate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.html</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>/h5/h5V3/watch</t>
     </r>
     <r>
@@ -223,9 +174,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>/</t>
     </r>
@@ -235,7 +184,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>DescriptionHtml</t>
     </r>
@@ -244,140 +192,161 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>/</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasalMetabolicRate.html</t>
+  </si>
+  <si>
+    <t>CumulativeConsumption.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MorningPulse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>O2MAX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RestingHeartRate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.html</t>
+    </r>
   </si>
   <si>
     <t>协议相关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>派健康账号注销须知</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/laisi/agreement/cancellation.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>隐私政策</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/laisi/agreement/privacyPolicy.html</t>
   </si>
   <si>
     <t>用户使用许可协议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/h5/h5V3/laisi/agreement/privacyPolicy.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/laisi/agreement/userAgreement.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">h5的链接后面都拼接一个userId </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日挑战</t>
   </si>
   <si>
     <t>挑战主页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日挑战</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/challenge/#/index?type=XXX   type对应pk赛的类型   skipping跳绳    wristball腕力球 wheel健腹轮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/h5/h5V3/skipLeaderboard/list.html?type=skipping  type对应pk赛的类型   skipping跳绳   steps跑步  wristball腕力球 wheel健腹轮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>生涯最佳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/h5/h5V3/PK/#/competitionList?type=skipping  type对应pk赛的类型   skipping跳绳   steps跑步  wristball腕力球 wheel健腹轮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 分享的地址都需要加上isShare=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/bestCareer/index.html?userId=xxx&amp;isShare=1&amp;type=wheel&amp;shareTime=2021/09/13 分享的日期  type对应pk赛的类型   skipping跳绳   steps跑步  wristball腕力球 wheel健腹轮 total 总的</t>
   </si>
   <si>
     <t>在线pk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>邀请观战</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/onlinePK/inviteToLookOn.html?nickName=xxx&amp;isShare=1&amp;app自己的信息</t>
   </si>
   <si>
     <t>规则</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3/onlinePK/rule.html&amp;isShare=1</t>
   </si>
   <si>
     <t>战绩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/onlinePK/competitionRecord.html?userId=xxx&amp;isShare=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/h5/h5V3/onlinePK/rule.html&amp;isShare=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/h5/h5V3/onlinePK/inviteToLookOn.html?nickName=xxx&amp;isShare=1&amp;app自己的信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>社区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>个人主页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/h5/h5V3//community/invitationShare.html?userId=10008515&amp;isShare=1</t>
   </si>
   <si>
     <t>动态详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/h5/h5V3//community/invitationShare.html?userId=10008515&amp;isShare=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/h5/h5V3/community/dynamicShare.html?userId=10008515&amp;id=26874&amp;isShare=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/h5/h5V3/bestCareer/index.html?userId=xxx&amp;isShare=1&amp;type=wheel&amp;shareTime=2021/09/13 分享的日期  type对应pk赛的类型   skipping跳绳   steps跑步  wristball腕力球 wheel健腹轮 total 总的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/h5/h5V3/sportsClock/#/index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/h5/h5V3/sportsReport/index.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,16 +362,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -410,12 +372,162 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,8 +540,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -437,27 +735,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -715,367 +1299,367 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="36.21875" customWidth="1"/>
-    <col min="2" max="2" width="106.88671875" customWidth="1"/>
+    <col min="1" max="1" width="36.2232142857143" customWidth="1"/>
+    <col min="2" max="2" width="106.883928571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="17.2" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="17.2" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="17.2" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>25</v>
       </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" ht="13" spans="1:2">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" ht="13" spans="2:2">
       <c r="B51" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" ht="13" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" ht="13" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A55" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A60" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A63" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="17.2" spans="1:1">
+      <c r="A66" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="17.2" spans="1:1">
+      <c r="A72" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="20800"/>
+    <workbookView windowWidth="16680" windowHeight="20800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
     <t>课程详情页</t>
   </si>
   <si>
-    <t>/h5/h5V3/videoCourse/courseDetail.html?id=xxx</t>
+    <t>/h5/h5V3/videoCourse/courseList.html?id=xxx</t>
   </si>
   <si>
     <t>体脂秤</t>
@@ -133,7 +133,7 @@
     <t>体脂秤分享</t>
   </si>
   <si>
-    <t>/h5/h5V3/balance/bodydetail.html?memberId=1008935&amp;measureId=95569959&amp;isShare=1&amp;deviceType=blebalance  isShare=1分享必须</t>
+    <t>/h5/h5V3/balance/bodydetail.html?memberId=1008935&amp;measureId=95569959&amp;isShare=1&amp;deviceType=blebalance&amp;shareTime=2021/10/15  isShare=1分享必须</t>
   </si>
   <si>
     <t>俱乐部</t>
@@ -341,12 +341,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,17 +365,47 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -391,90 +421,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,8 +459,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,6 +470,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,8 +505,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,85 +534,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,97 +708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,18 +726,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,23 +734,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,9 +757,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,173 +805,172 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1307,8 +1292,8 @@
   <sheetPr/>
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="1"/>
@@ -1553,7 +1538,7 @@
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="17.2" spans="1:1">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1582,7 +1567,7 @@
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="17.2" spans="1:1">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1595,7 +1580,7 @@
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="17.2" spans="1:1">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1608,7 +1593,7 @@
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="17.2" spans="1:1">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1637,7 +1622,7 @@
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="17.2" spans="1:1">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
     </row>

--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16680" windowHeight="20800"/>
+    <workbookView windowWidth="28300" windowHeight="20800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t xml:space="preserve">h5的链接后面都拼接一个userId </t>
   </si>
@@ -133,7 +133,7 @@
     <t>体脂秤分享</t>
   </si>
   <si>
-    <t>/h5/h5V3/balance/bodydetail.html?memberId=1008935&amp;measureId=95569959&amp;isShare=1&amp;deviceType=blebalance&amp;shareTime=2021/10/15  isShare=1分享必须</t>
+    <t>/h5/h5V3/balance/bodydetail.html?memberId=1008935&amp;measureId=95569959&amp;isShare=1&amp;deviceType=blebalance  isShare=1分享必须</t>
   </si>
   <si>
     <t>俱乐部</t>
@@ -335,18 +335,82 @@
   <si>
     <t>/h5/h5V3/community/dynamicShare.html?userId=10008515&amp;id=26874&amp;isShare=1</t>
   </si>
+  <si>
+    <t>分享回来的app的断链</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>ios</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pk比赛详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://lstemp.laisitech.com?actionType=competitionDetail&amp;id=123&amp;type=skipping(wheel、wristball)</t>
+  </si>
+  <si>
+    <t>rehealth://competitionDetail?id=${this.competitionId}&amp;type=${this.type}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://lstemp.laisitech.com?actionType=communityDynamicDetail&amp;id=动态id&amp;dynamicUserId=动态作者id</t>
+  </si>
+  <si>
+    <t>rehealth://communityDynamicDetail?id=" + getQueryString("id") + "&amp;userId=" + getQueryString("userId")</t>
+  </si>
+  <si>
+    <t>https://lstemp.laisitech.com?actionType=communityHomepage&amp;id=被访问人的主页id</t>
+  </si>
+  <si>
+    <t>rehealth://communityHomepage?userId=" + getQueryString("userId")</t>
+  </si>
+  <si>
+    <t>app主页</t>
+  </si>
+  <si>
+    <t>https://lstemp.laisitech.com?actionType=goToAppHomeTabBar</t>
+  </si>
+  <si>
+    <t>加载网页，外部通用链接</t>
+  </si>
+  <si>
+    <t>https://lstemp.laisitech.com?actionType=loadH5Url&amp;url="/Pk/hhh"</t>
+  </si>
+  <si>
+    <t>https://lstemp.laisitech.com?actionType=goCourseHomePage&amp;id=课程大类ID</t>
+  </si>
+  <si>
+    <t>https://lstemp.laisitech.com?actionType=goBestCareer</t>
+  </si>
+  <si>
+    <t>日报周报</t>
+  </si>
+  <si>
+    <t>https://lstemp.laisitech.com?actionType=goSportReport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://lstemp.laisitech.com?actionType=goSportClock</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,10 +426,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,6 +522,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -384,47 +560,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,76 +583,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -534,73 +604,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,25 +754,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,73 +778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,32 +795,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,6 +836,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -819,158 +874,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1290,16 +1366,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="36.2232142857143" customWidth="1"/>
-    <col min="2" max="2" width="106.883928571429" customWidth="1"/>
+    <col min="2" max="2" width="66.2142857142857" customWidth="1"/>
+    <col min="3" max="3" width="80.9553571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1642,7 +1719,107 @@
         <v>77</v>
       </c>
     </row>
+    <row r="82" s="1" customFormat="1" ht="17.2" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" ht="38" spans="1:3">
+      <c r="A84" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" ht="38" spans="1:3">
+      <c r="A85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" ht="32" spans="1:2">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B92" r:id="rId1" display="&#10;https://lstemp.laisitech.com?actionType=goSportClock" tooltip="https://lstemp.laisitech.com?actionType=goSportReport"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t xml:space="preserve">h5的链接后面都拼接一个userId </t>
   </si>
@@ -148,7 +148,7 @@
     <t>俱乐部详情主页</t>
   </si>
   <si>
-    <t>/h5/h5V3/allClub/clubList_Detail/clubDetail.html.html?id=xxx</t>
+    <t>/h5/h5V3/allClub/clubList_Detail/clubDetail.html?id=xxx</t>
   </si>
   <si>
     <t>升级攻略</t>
@@ -356,20 +356,20 @@
 https://lstemp.laisitech.com?actionType=competitionDetail&amp;id=123&amp;type=skipping(wheel、wristball)</t>
   </si>
   <si>
-    <t>rehealth://competitionDetail?id=${this.competitionId}&amp;type=${this.type}</t>
+    <t>app://rehealth/mainPage?redirectUrl=PK/#/competitionDetail?hideTitle=1&amp;id=${this.competitionId}&amp;type=${this.type}</t>
   </si>
   <si>
     <t xml:space="preserve">
 https://lstemp.laisitech.com?actionType=communityDynamicDetail&amp;id=动态id&amp;dynamicUserId=动态作者id</t>
   </si>
   <si>
-    <t>rehealth://communityDynamicDetail?id=" + getQueryString("id") + "&amp;userId=" + getQueryString("userId")</t>
+    <t>app://rehealth/mainPage?goto=/dynamic/dynamic_detail_activity&amp;id=" + getQueryString("id") + "&amp;userId=" + getQueryString("userId")</t>
   </si>
   <si>
     <t>https://lstemp.laisitech.com?actionType=communityHomepage&amp;id=被访问人的主页id</t>
   </si>
   <si>
-    <t>rehealth://communityHomepage?userId=" + getQueryString("userId")</t>
+    <t>app://rehealth/mainPage?goto=/dynamic/dynamic_homepage&amp;userId=" + getQueryString("userId")</t>
   </si>
   <si>
     <t>app主页</t>
@@ -378,26 +378,60 @@
     <t>https://lstemp.laisitech.com?actionType=goToAppHomeTabBar</t>
   </si>
   <si>
+    <t>app://rehealth/mainPage</t>
+  </si>
+  <si>
     <t>加载网页，外部通用链接</t>
   </si>
   <si>
     <t>https://lstemp.laisitech.com?actionType=loadH5Url&amp;url="/Pk/hhh"</t>
   </si>
   <si>
+    <t>app://rehealth/mainPage?redirectUrl=</t>
+  </si>
+  <si>
     <t>https://lstemp.laisitech.com?actionType=goCourseHomePage&amp;id=课程大类ID</t>
   </si>
   <si>
+    <t>app://rehealth/mainPage?redirectUrl=videoCourse/courseList.html?hideTitle=1&amp;id=${this.id}</t>
+  </si>
+  <si>
     <t>https://lstemp.laisitech.com?actionType=goBestCareer</t>
   </si>
   <si>
+    <t>app://rehealth/mainPage?goto=/me/career_best</t>
+  </si>
+  <si>
     <t>日报周报</t>
   </si>
   <si>
     <t>https://lstemp.laisitech.com?actionType=goSportReport</t>
+  </si>
+  <si>
+    <t>app://rehealth/mainPage?redirectUrl=sportReport/index.html?hideTitle=1</t>
   </si>
   <si>
     <t xml:space="preserve">
 https://lstemp.laisitech.com?actionType=goSportClock</t>
+  </si>
+  <si>
+    <t>app://rehealth/mainPage?redirectUrl=sportsClock/index.html?hideTitle=1</t>
+  </si>
+  <si>
+    <t>俱乐部主页</t>
+  </si>
+  <si>
+    <t>https://lstemp.laisitech.com?actionType=clubDetail&amp;id=" + this.clubId</t>
+  </si>
+  <si>
+    <t>app://rehealth/mainPage?redirectUrl=allClub/clubList_Detail/clubDetail.html?hideTitle=1&amp;id=11</t>
+  </si>
+  <si>
+    <t>https://lstemp.laisitech.com?actionType=groupDetail&amp;id=" +
+          this.groupId</t>
+  </si>
+  <si>
+    <t>app://rehealth/mainPage?redirectUrl=myGroup/#/groupIndex?hideTitle=1&amp;id=${this.groupId}</t>
   </si>
 </sst>
 </file>
@@ -1366,10 +1400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="2"/>
@@ -1768,52 +1802,92 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>93</v>
+      </c>
+      <c r="C88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>95</v>
+      </c>
+      <c r="C89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>64</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>97</v>
+      </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" ht="32" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="C91" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" ht="32" spans="1:3">
       <c r="A92" t="s">
         <v>24</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
+      </c>
+      <c r="C92" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" ht="25" spans="1:3">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t xml:space="preserve">h5的链接后面都拼接一个userId </t>
   </si>
@@ -433,6 +433,27 @@
   <si>
     <t>app://rehealth/mainPage?redirectUrl=myGroup/#/groupIndex?hideTitle=1&amp;id=${this.groupId}</t>
   </si>
+  <si>
+    <t>在线pk邀请</t>
+  </si>
+  <si>
+    <t>https://lstemp.laisitech.com" + window.location.search + "&amp;actionType=inviteToOnlinePK</t>
+  </si>
+  <si>
+    <t>app://rehealth/mainPage?goto=/skiprope/skip_game_main_translucent_activity" + window.location.search.replace("?", "$")</t>
+  </si>
+  <si>
+    <t>在线pk首页</t>
+  </si>
+  <si>
+    <t>https://lstemp.laisitech.com?actionType=ropeskippingLiveCompetion</t>
+  </si>
+  <si>
+    <t>app://rehealth/mainPage?goto=/skiprope/skip_game_main_activity</t>
+  </si>
+  <si>
+    <t>红包塞</t>
+  </si>
 </sst>
 </file>
 
@@ -444,7 +465,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,12 +479,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="PingFang SC"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -926,159 +941,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1400,10 +1412,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="2"/>
@@ -1781,7 +1793,7 @@
       </c>
     </row>
     <row r="85" ht="38" spans="1:3">
-      <c r="A85" t="s">
+      <c r="A85" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -1791,88 +1803,88 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
+    <row r="86" ht="25" spans="1:3">
+      <c r="A86" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+    <row r="87" ht="13" spans="1:3">
+      <c r="A87" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C87" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
+    <row r="88" ht="13" spans="1:3">
+      <c r="A88" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
+    <row r="89" ht="13" spans="1:3">
+      <c r="A89" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
+    <row r="90" ht="13" spans="1:3">
+      <c r="A90" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C90" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
+    <row r="91" ht="13" spans="1:3">
+      <c r="A91" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C91" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" ht="32" spans="1:3">
-      <c r="A92" t="s">
+    <row r="92" ht="25" spans="1:3">
+      <c r="A92" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C92" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
+    <row r="93" ht="13" spans="1:3">
+      <c r="A93" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C93" t="s">
@@ -1880,7 +1892,7 @@
       </c>
     </row>
     <row r="94" ht="25" spans="1:3">
-      <c r="A94" t="s">
+      <c r="A94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -1888,11 +1900,46 @@
       </c>
       <c r="C94" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="95" ht="25" spans="1:3">
+      <c r="A95" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" ht="13" spans="1:3">
+      <c r="A96" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" ht="13" spans="1:3">
+      <c r="A97" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B92" r:id="rId1" display="&#10;https://lstemp.laisitech.com?actionType=goSportClock" tooltip="https://lstemp.laisitech.com?actionType=goSportReport"/>
+    <hyperlink ref="B87" r:id="rId2" display="https://lstemp.laisitech.com?actionType=goToAppHomeTabBar"/>
+    <hyperlink ref="B96" r:id="rId3" display="https://lstemp.laisitech.com?actionType=ropeskippingLiveCompetion"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -460,10 +460,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -482,6 +482,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -489,7 +505,112 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,21 +624,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -526,112 +632,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -653,181 +653,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,28 +844,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,11 +865,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,165 +919,170 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1414,8 +1414,8 @@
   <sheetPr/>
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="2"/>
@@ -1938,7 +1938,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B92" r:id="rId1" display="&#10;https://lstemp.laisitech.com?actionType=goSportClock" tooltip="https://lstemp.laisitech.com?actionType=goSportReport"/>
-    <hyperlink ref="B87" r:id="rId2" display="https://lstemp.laisitech.com?actionType=goToAppHomeTabBar"/>
+    <hyperlink ref="B87" r:id="rId2" display="https://lstemp.laisitech.com?actionType=goToAppHomeTabBar" tooltip="https://lstemp.laisitech.com?actionType=goToAppHomeTabBar"/>
     <hyperlink ref="B96" r:id="rId3" display="https://lstemp.laisitech.com?actionType=ropeskippingLiveCompetion"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app3.0-H5的链接地址.xlsx
+++ b/app3.0-H5的链接地址.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
   <si>
     <t xml:space="preserve">h5的链接后面都拼接一个userId </t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>/h5/h5V3/videoCourse/courseList.html?id=xxx</t>
+  </si>
+  <si>
+    <t>科学跳绳</t>
+  </si>
+  <si>
+    <t>/h5/h5V3/videoCourse/index.html?scienceTrain=1</t>
+  </si>
+  <si>
+    <t>//0正常课程 1跳前热身 2跳后拉伸</t>
   </si>
   <si>
     <t>体脂秤</t>
@@ -460,10 +469,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -482,7 +491,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,29 +552,24 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,6 +583,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -541,81 +612,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,11 +620,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -653,181 +662,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,7 +854,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,17 +904,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,8 +916,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,30 +937,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -941,148 +950,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1414,8 +1423,8 @@
   <sheetPr/>
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="2"/>
@@ -1572,51 +1581,62 @@
         <v>34</v>
       </c>
     </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="35" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1624,87 +1644,87 @@
         <v>25</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" ht="13" spans="2:2">
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" ht="13" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" ht="13" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1712,128 +1732,128 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" ht="17.2" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" ht="38" spans="1:3">
       <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" ht="38" spans="1:3">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" ht="25" spans="1:3">
       <c r="A86" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" ht="13" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" ht="13" spans="1:3">
       <c r="A88" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" ht="13" spans="1:3">
@@ -1841,32 +1861,32 @@
         <v>30</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" ht="13" spans="1:3">
       <c r="A90" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" ht="13" spans="1:3">
       <c r="A91" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C91" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" ht="25" spans="1:3">
@@ -1874,21 +1894,21 @@
         <v>24</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" ht="13" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" ht="25" spans="1:3">
@@ -1896,43 +1916,43 @@
         <v>16</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" ht="25" spans="1:3">
       <c r="A95" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C95" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" ht="13" spans="1:3">
       <c r="A96" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C96" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" ht="13" spans="1:3">
       <c r="A97" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C97" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
